--- a/CDSImagingPilotProtocol_TimingsBlock2.xlsx
+++ b/CDSImagingPilotProtocol_TimingsBlock2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/nicholas_dunn_cchmc_org/Documents/Documents/06 - Neuroimaging Study/SART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_714D9787CE44A61C7FAB2B47EC012D16618A1064" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E110C6C-93F4-4AEE-9473-CD4E24EC3983}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_714D9787CE44A61C7FAB2B47EC012D16618A1064" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79297B9E-348D-49BC-97C5-3AA39C602806}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="855" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,9 +350,6 @@
     <t>right</t>
   </si>
   <si>
-    <t>space</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>probe2CorrAns</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
 </sst>
 </file>
@@ -412,6 +412,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,7 +718,7 @@
   <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K317" sqref="K317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,7 +750,7 @@
         <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -766,7 +770,7 @@
         <v>1800</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -786,7 +790,7 @@
         <v>1800</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -806,7 +810,7 @@
         <v>1800</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -826,7 +830,7 @@
         <v>1800</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -846,7 +850,7 @@
         <v>1800</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -866,7 +870,7 @@
         <v>1800</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -886,7 +890,7 @@
         <v>1800</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -906,7 +910,7 @@
         <v>1800</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -926,7 +930,7 @@
         <v>1800</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -946,7 +950,7 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -966,7 +970,7 @@
         <v>1800</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -986,7 +990,7 @@
         <v>1800</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1006,7 +1010,7 @@
         <v>1800</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1026,7 +1030,7 @@
         <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1046,7 +1050,7 @@
         <v>1800</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1066,7 +1070,7 @@
         <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1086,7 +1090,7 @@
         <v>1800</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1106,7 +1110,7 @@
         <v>1800</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1126,7 +1130,7 @@
         <v>1800</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1146,7 +1150,7 @@
         <v>1800</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1166,7 +1170,7 @@
         <v>1800</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1186,7 +1190,7 @@
         <v>1800</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1206,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1214,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25">
         <v>61000</v>
@@ -1246,7 +1250,7 @@
         <v>1800</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1266,7 +1270,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1286,7 +1290,7 @@
         <v>1800</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1306,7 +1310,7 @@
         <v>1800</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1326,7 +1330,7 @@
         <v>1800</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1346,7 +1350,7 @@
         <v>1800</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1366,7 +1370,7 @@
         <v>1800</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1386,7 +1390,7 @@
         <v>1800</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1406,7 +1410,7 @@
         <v>1800</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1426,7 +1430,7 @@
         <v>1800</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1446,7 +1450,7 @@
         <v>1800</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1466,7 +1470,7 @@
         <v>1800</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1486,7 +1490,7 @@
         <v>1800</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1506,7 +1510,7 @@
         <v>1800</v>
       </c>
       <c r="F39" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1526,7 +1530,7 @@
         <v>1800</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1546,7 +1550,7 @@
         <v>1800</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1566,7 +1570,7 @@
         <v>1800</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1586,7 +1590,7 @@
         <v>1800</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1606,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1614,7 +1618,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45">
         <v>118000</v>
@@ -1646,7 +1650,7 @@
         <v>1800</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1666,7 +1670,7 @@
         <v>1800</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1686,7 +1690,7 @@
         <v>1800</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1706,7 +1710,7 @@
         <v>1800</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1726,7 +1730,7 @@
         <v>1800</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1746,7 +1750,7 @@
         <v>1800</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1766,7 +1770,7 @@
         <v>1800</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1786,7 +1790,7 @@
         <v>1800</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1806,7 +1810,7 @@
         <v>1800</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1826,7 +1830,7 @@
         <v>1800</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1846,7 +1850,7 @@
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1866,7 +1870,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1886,7 +1890,7 @@
         <v>1800</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1906,7 +1910,7 @@
         <v>1800</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1926,7 +1930,7 @@
         <v>1800</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1946,7 +1950,7 @@
         <v>1800</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1966,7 +1970,7 @@
         <v>1800</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1986,7 +1990,7 @@
         <v>1800</v>
       </c>
       <c r="F63" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2006,7 +2010,7 @@
         <v>1800</v>
       </c>
       <c r="F64" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2026,7 +2030,7 @@
         <v>1800</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2046,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2066,7 +2070,7 @@
         <v>1800</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2086,7 +2090,7 @@
         <v>1800</v>
       </c>
       <c r="F68" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2106,7 +2110,7 @@
         <v>1800</v>
       </c>
       <c r="F69" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2126,7 +2130,7 @@
         <v>1800</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2146,7 +2150,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2166,7 +2170,7 @@
         <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2186,7 +2190,7 @@
         <v>1800</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2206,7 +2210,7 @@
         <v>1800</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2226,7 +2230,7 @@
         <v>1800</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2246,7 +2250,7 @@
         <v>1800</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2266,7 +2270,7 @@
         <v>1800</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2286,7 +2290,7 @@
         <v>1800</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2306,7 +2310,7 @@
         <v>1800</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2326,7 +2330,7 @@
         <v>1800</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2346,7 +2350,7 @@
         <v>1800</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2366,7 +2370,7 @@
         <v>1800</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2386,7 +2390,7 @@
         <v>1800</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2406,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2414,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85">
         <v>225000</v>
@@ -2446,7 +2450,7 @@
         <v>1800</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2466,7 +2470,7 @@
         <v>1800</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2486,7 +2490,7 @@
         <v>1800</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2506,7 +2510,7 @@
         <v>1800</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2526,7 +2530,7 @@
         <v>1800</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2546,7 +2550,7 @@
         <v>1800</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2566,7 +2570,7 @@
         <v>1800</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2586,7 +2590,7 @@
         <v>1800</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2606,7 +2610,7 @@
         <v>1800</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2626,7 +2630,7 @@
         <v>1800</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2646,7 +2650,7 @@
         <v>1800</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2666,7 +2670,7 @@
         <v>1800</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2686,7 +2690,7 @@
         <v>1800</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2706,7 +2710,7 @@
         <v>1800</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2726,7 +2730,7 @@
         <v>1800</v>
       </c>
       <c r="F100" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2746,7 +2750,7 @@
         <v>1800</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2766,7 +2770,7 @@
         <v>1800</v>
       </c>
       <c r="F102" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2786,7 +2790,7 @@
         <v>1800</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2806,7 +2810,7 @@
         <v>1800</v>
       </c>
       <c r="F104" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2826,7 +2830,7 @@
         <v>1800</v>
       </c>
       <c r="F105" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2846,7 +2850,7 @@
         <v>1800</v>
       </c>
       <c r="F106" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2866,7 +2870,7 @@
         <v>1800</v>
       </c>
       <c r="F107" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2886,7 +2890,7 @@
         <v>1800</v>
       </c>
       <c r="F108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2906,7 +2910,7 @@
         <v>1800</v>
       </c>
       <c r="F109" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2926,7 +2930,7 @@
         <v>1800</v>
       </c>
       <c r="F110" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2946,7 +2950,7 @@
         <v>1800</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2966,7 +2970,7 @@
         <v>1800</v>
       </c>
       <c r="F112" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2986,7 +2990,7 @@
         <v>1800</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3006,7 +3010,7 @@
         <v>1800</v>
       </c>
       <c r="F114" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3026,7 +3030,7 @@
         <v>1800</v>
       </c>
       <c r="F115" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3046,7 +3050,7 @@
         <v>1800</v>
       </c>
       <c r="F116" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3066,7 +3070,7 @@
         <v>1800</v>
       </c>
       <c r="F117" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3086,7 +3090,7 @@
         <v>1800</v>
       </c>
       <c r="F118" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3106,7 +3110,7 @@
         <v>1800</v>
       </c>
       <c r="F119" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3126,7 +3130,7 @@
         <v>1800</v>
       </c>
       <c r="F120" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3146,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3154,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C122">
         <v>324500</v>
@@ -3186,7 +3190,7 @@
         <v>1800</v>
       </c>
       <c r="F123" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3206,7 +3210,7 @@
         <v>1800</v>
       </c>
       <c r="F124" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3226,7 +3230,7 @@
         <v>1800</v>
       </c>
       <c r="F125" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3246,7 +3250,7 @@
         <v>1800</v>
       </c>
       <c r="F126" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3266,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3274,7 +3278,7 @@
         <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C128">
         <v>346500</v>
@@ -3306,7 +3310,7 @@
         <v>1800</v>
       </c>
       <c r="F129" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3326,7 +3330,7 @@
         <v>1800</v>
       </c>
       <c r="F130" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3346,7 +3350,7 @@
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3366,7 +3370,7 @@
         <v>1800</v>
       </c>
       <c r="F132" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3386,7 +3390,7 @@
         <v>1800</v>
       </c>
       <c r="F133" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3406,7 +3410,7 @@
         <v>1800</v>
       </c>
       <c r="F134" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3426,7 +3430,7 @@
         <v>1800</v>
       </c>
       <c r="F135" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3446,7 +3450,7 @@
         <v>1800</v>
       </c>
       <c r="F136" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3466,7 +3470,7 @@
         <v>1800</v>
       </c>
       <c r="F137" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3486,7 +3490,7 @@
         <v>1800</v>
       </c>
       <c r="F138" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3506,7 +3510,7 @@
         <v>1800</v>
       </c>
       <c r="F139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3526,7 +3530,7 @@
         <v>1800</v>
       </c>
       <c r="F140" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3546,7 +3550,7 @@
         <v>1800</v>
       </c>
       <c r="F141" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3566,7 +3570,7 @@
         <v>1800</v>
       </c>
       <c r="F142" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3586,7 +3590,7 @@
         <v>1800</v>
       </c>
       <c r="F143" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3606,7 +3610,7 @@
         <v>1800</v>
       </c>
       <c r="F144" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3626,7 +3630,7 @@
         <v>1800</v>
       </c>
       <c r="F145" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3646,7 +3650,7 @@
         <v>1800</v>
       </c>
       <c r="F146" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3666,7 +3670,7 @@
         <v>1800</v>
       </c>
       <c r="F147" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3686,7 +3690,7 @@
         <v>1800</v>
       </c>
       <c r="F148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3706,7 +3710,7 @@
         <v>1800</v>
       </c>
       <c r="F149" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3726,7 +3730,7 @@
         <v>1800</v>
       </c>
       <c r="F150" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3746,7 +3750,7 @@
         <v>1800</v>
       </c>
       <c r="F151" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3766,7 +3770,7 @@
         <v>1800</v>
       </c>
       <c r="F152" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3786,7 +3790,7 @@
         <v>1800</v>
       </c>
       <c r="F153" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3806,7 +3810,7 @@
         <v>1800</v>
       </c>
       <c r="F154" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3826,7 +3830,7 @@
         <v>1800</v>
       </c>
       <c r="F155" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3846,7 +3850,7 @@
         <v>1800</v>
       </c>
       <c r="F156" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3866,7 +3870,7 @@
         <v>1800</v>
       </c>
       <c r="F157" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3886,7 +3890,7 @@
         <v>1800</v>
       </c>
       <c r="F158" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3906,7 +3910,7 @@
         <v>1800</v>
       </c>
       <c r="F159" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3926,7 +3930,7 @@
         <v>1800</v>
       </c>
       <c r="F160" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3946,7 +3950,7 @@
         <v>1800</v>
       </c>
       <c r="F161" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3966,7 +3970,7 @@
         <v>1800</v>
       </c>
       <c r="F162" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -3986,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3994,7 +3998,7 @@
         <v>35</v>
       </c>
       <c r="B164" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C164">
         <v>443500</v>
@@ -4026,7 +4030,7 @@
         <v>1800</v>
       </c>
       <c r="F165" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4046,7 +4050,7 @@
         <v>1800</v>
       </c>
       <c r="F166" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4066,7 +4070,7 @@
         <v>1800</v>
       </c>
       <c r="F167" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4086,7 +4090,7 @@
         <v>1800</v>
       </c>
       <c r="F168" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4106,7 +4110,7 @@
         <v>1800</v>
       </c>
       <c r="F169" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4126,7 +4130,7 @@
         <v>1800</v>
       </c>
       <c r="F170" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4146,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4154,7 +4158,7 @@
         <v>38</v>
       </c>
       <c r="B172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C172">
         <v>470500</v>
@@ -4186,7 +4190,7 @@
         <v>1800</v>
       </c>
       <c r="F173" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4206,7 +4210,7 @@
         <v>1800</v>
       </c>
       <c r="F174" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4226,7 +4230,7 @@
         <v>1800</v>
       </c>
       <c r="F175" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4246,7 +4250,7 @@
         <v>1800</v>
       </c>
       <c r="F176" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4266,7 +4270,7 @@
         <v>1800</v>
       </c>
       <c r="F177" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4286,7 +4290,7 @@
         <v>1800</v>
       </c>
       <c r="F178" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4306,7 +4310,7 @@
         <v>1800</v>
       </c>
       <c r="F179" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4326,7 +4330,7 @@
         <v>1800</v>
       </c>
       <c r="F180" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4346,7 +4350,7 @@
         <v>1800</v>
       </c>
       <c r="F181" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4366,7 +4370,7 @@
         <v>1800</v>
       </c>
       <c r="F182" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4386,7 +4390,7 @@
         <v>1800</v>
       </c>
       <c r="F183" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4406,7 +4410,7 @@
         <v>1800</v>
       </c>
       <c r="F184" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4426,7 +4430,7 @@
         <v>1800</v>
       </c>
       <c r="F185" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4446,7 +4450,7 @@
         <v>1800</v>
       </c>
       <c r="F186" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4466,7 +4470,7 @@
         <v>1800</v>
       </c>
       <c r="F187" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4486,7 +4490,7 @@
         <v>1800</v>
       </c>
       <c r="F188" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4506,7 +4510,7 @@
         <v>1800</v>
       </c>
       <c r="F189" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4526,7 +4530,7 @@
         <v>1800</v>
       </c>
       <c r="F190" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4546,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4554,7 +4558,7 @@
         <v>43</v>
       </c>
       <c r="B192" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C192">
         <v>527500</v>
@@ -4586,7 +4590,7 @@
         <v>1800</v>
       </c>
       <c r="F193" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4606,7 +4610,7 @@
         <v>1800</v>
       </c>
       <c r="F194" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4626,7 +4630,7 @@
         <v>1800</v>
       </c>
       <c r="F195" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4646,7 +4650,7 @@
         <v>1800</v>
       </c>
       <c r="F196" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4666,7 +4670,7 @@
         <v>1800</v>
       </c>
       <c r="F197" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4686,7 +4690,7 @@
         <v>1800</v>
       </c>
       <c r="F198" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4706,7 +4710,7 @@
         <v>1800</v>
       </c>
       <c r="F199" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4726,7 +4730,7 @@
         <v>1800</v>
       </c>
       <c r="F200" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4746,7 +4750,7 @@
         <v>1800</v>
       </c>
       <c r="F201" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -4766,7 +4770,7 @@
         <v>1800</v>
       </c>
       <c r="F202" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4786,7 +4790,7 @@
         <v>1800</v>
       </c>
       <c r="F203" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4806,7 +4810,7 @@
         <v>1800</v>
       </c>
       <c r="F204" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4826,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -4834,7 +4838,7 @@
         <v>46</v>
       </c>
       <c r="B206" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C206">
         <v>569500</v>
@@ -4866,7 +4870,7 @@
         <v>1800</v>
       </c>
       <c r="F207" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -4886,7 +4890,7 @@
         <v>1800</v>
       </c>
       <c r="F208" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4906,7 +4910,7 @@
         <v>1800</v>
       </c>
       <c r="F209" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4926,7 +4930,7 @@
         <v>1800</v>
       </c>
       <c r="F210" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4946,7 +4950,7 @@
         <v>1800</v>
       </c>
       <c r="F211" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4966,7 +4970,7 @@
         <v>1800</v>
       </c>
       <c r="F212" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4986,7 +4990,7 @@
         <v>1800</v>
       </c>
       <c r="F213" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5006,7 +5010,7 @@
         <v>1800</v>
       </c>
       <c r="F214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5026,7 +5030,7 @@
         <v>1800</v>
       </c>
       <c r="F215" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5046,7 +5050,7 @@
         <v>1800</v>
       </c>
       <c r="F216" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5066,7 +5070,7 @@
         <v>1800</v>
       </c>
       <c r="F217" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5086,7 +5090,7 @@
         <v>1800</v>
       </c>
       <c r="F218" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5106,7 +5110,7 @@
         <v>1800</v>
       </c>
       <c r="F219" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5126,7 +5130,7 @@
         <v>1800</v>
       </c>
       <c r="F220" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5146,7 +5150,7 @@
         <v>1800</v>
       </c>
       <c r="F221" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5166,7 +5170,7 @@
         <v>1800</v>
       </c>
       <c r="F222" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5186,7 +5190,7 @@
         <v>1800</v>
       </c>
       <c r="F223" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5206,7 +5210,7 @@
         <v>1800</v>
       </c>
       <c r="F224" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5226,7 +5230,7 @@
         <v>1800</v>
       </c>
       <c r="F225" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5246,7 +5250,7 @@
         <v>1800</v>
       </c>
       <c r="F226" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5266,7 +5270,7 @@
         <v>1800</v>
       </c>
       <c r="F227" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5286,7 +5290,7 @@
         <v>1800</v>
       </c>
       <c r="F228" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5306,7 +5310,7 @@
         <v>1800</v>
       </c>
       <c r="F229" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5326,7 +5330,7 @@
         <v>1800</v>
       </c>
       <c r="F230" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5346,7 +5350,7 @@
         <v>1800</v>
       </c>
       <c r="F231" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5366,7 +5370,7 @@
         <v>1800</v>
       </c>
       <c r="F232" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5386,7 +5390,7 @@
         <v>1800</v>
       </c>
       <c r="F233" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5406,7 +5410,7 @@
         <v>1800</v>
       </c>
       <c r="F234" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5426,7 +5430,7 @@
         <v>1800</v>
       </c>
       <c r="F235" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5446,7 +5450,7 @@
         <v>1800</v>
       </c>
       <c r="F236" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5466,7 +5470,7 @@
         <v>1800</v>
       </c>
       <c r="F237" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5486,7 +5490,7 @@
         <v>1800</v>
       </c>
       <c r="F238" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5506,7 +5510,7 @@
         <v>1800</v>
       </c>
       <c r="F239" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5526,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5534,7 +5538,7 @@
         <v>55</v>
       </c>
       <c r="B241" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C241">
         <v>664000</v>
@@ -5565,8 +5569,8 @@
       <c r="E242">
         <v>1800</v>
       </c>
-      <c r="G242" t="s">
-        <v>104</v>
+      <c r="F242" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5585,8 +5589,8 @@
       <c r="E243">
         <v>1800</v>
       </c>
-      <c r="G243" t="s">
-        <v>104</v>
+      <c r="F243" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5605,8 +5609,8 @@
       <c r="E244">
         <v>1800</v>
       </c>
-      <c r="G244" t="s">
-        <v>104</v>
+      <c r="F244" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5625,8 +5629,8 @@
       <c r="E245">
         <v>1800</v>
       </c>
-      <c r="G245" t="s">
-        <v>104</v>
+      <c r="F245" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -5645,8 +5649,8 @@
       <c r="E246">
         <v>1800</v>
       </c>
-      <c r="G246" t="s">
-        <v>104</v>
+      <c r="F246" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5665,8 +5669,8 @@
       <c r="E247">
         <v>1800</v>
       </c>
-      <c r="G247" t="s">
-        <v>104</v>
+      <c r="F247" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5685,8 +5689,8 @@
       <c r="E248">
         <v>1800</v>
       </c>
-      <c r="G248" t="s">
-        <v>104</v>
+      <c r="F248" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5705,8 +5709,8 @@
       <c r="E249">
         <v>1800</v>
       </c>
-      <c r="G249" t="s">
-        <v>104</v>
+      <c r="F249" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5725,8 +5729,8 @@
       <c r="E250">
         <v>1800</v>
       </c>
-      <c r="G250" t="s">
-        <v>104</v>
+      <c r="F250" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5745,8 +5749,8 @@
       <c r="E251">
         <v>1800</v>
       </c>
-      <c r="G251" t="s">
-        <v>104</v>
+      <c r="F251" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5765,8 +5769,8 @@
       <c r="E252">
         <v>1800</v>
       </c>
-      <c r="G252" t="s">
-        <v>104</v>
+      <c r="F252" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5785,8 +5789,8 @@
       <c r="E253">
         <v>1800</v>
       </c>
-      <c r="G253" t="s">
-        <v>107</v>
+      <c r="F253" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5805,8 +5809,8 @@
       <c r="E254">
         <v>1800</v>
       </c>
-      <c r="G254" t="s">
-        <v>104</v>
+      <c r="F254" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5825,8 +5829,8 @@
       <c r="E255">
         <v>1800</v>
       </c>
-      <c r="G255" t="s">
-        <v>104</v>
+      <c r="F255" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5845,8 +5849,8 @@
       <c r="E256">
         <v>1800</v>
       </c>
-      <c r="G256" t="s">
-        <v>104</v>
+      <c r="F256" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5865,8 +5869,8 @@
       <c r="E257">
         <v>1800</v>
       </c>
-      <c r="G257" t="s">
-        <v>104</v>
+      <c r="F257" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -5885,8 +5889,8 @@
       <c r="E258">
         <v>1800</v>
       </c>
-      <c r="G258" t="s">
-        <v>104</v>
+      <c r="F258" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -5905,8 +5909,8 @@
       <c r="E259">
         <v>1800</v>
       </c>
-      <c r="G259" t="s">
-        <v>104</v>
+      <c r="F259" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -5925,8 +5929,8 @@
       <c r="E260">
         <v>1800</v>
       </c>
-      <c r="G260" t="s">
-        <v>104</v>
+      <c r="F260" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -5945,8 +5949,8 @@
       <c r="E261">
         <v>1800</v>
       </c>
-      <c r="G261" t="s">
-        <v>104</v>
+      <c r="F261" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -5965,8 +5969,8 @@
       <c r="E262">
         <v>1800</v>
       </c>
-      <c r="G262" t="s">
-        <v>104</v>
+      <c r="F262" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -5985,8 +5989,8 @@
       <c r="E263">
         <v>1800</v>
       </c>
-      <c r="G263" t="s">
-        <v>104</v>
+      <c r="F263" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6005,8 +6009,8 @@
       <c r="E264">
         <v>1800</v>
       </c>
-      <c r="G264" t="s">
-        <v>104</v>
+      <c r="F264" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6025,8 +6029,8 @@
       <c r="E265">
         <v>1800</v>
       </c>
-      <c r="G265" t="s">
-        <v>104</v>
+      <c r="F265" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6045,8 +6049,8 @@
       <c r="E266">
         <v>1800</v>
       </c>
-      <c r="G266" t="s">
-        <v>104</v>
+      <c r="F266" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6065,8 +6069,8 @@
       <c r="E267">
         <v>1800</v>
       </c>
-      <c r="G267" t="s">
-        <v>104</v>
+      <c r="F267" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6086,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6094,7 +6098,7 @@
         <v>60</v>
       </c>
       <c r="B269" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C269">
         <v>741000</v>
@@ -6125,8 +6129,8 @@
       <c r="E270">
         <v>1800</v>
       </c>
-      <c r="G270" t="s">
-        <v>104</v>
+      <c r="F270" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6145,8 +6149,8 @@
       <c r="E271">
         <v>1800</v>
       </c>
-      <c r="G271" t="s">
-        <v>104</v>
+      <c r="F271" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6165,8 +6169,8 @@
       <c r="E272">
         <v>1800</v>
       </c>
-      <c r="G272" t="s">
-        <v>104</v>
+      <c r="F272" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6185,8 +6189,8 @@
       <c r="E273">
         <v>1800</v>
       </c>
-      <c r="G273" t="s">
-        <v>104</v>
+      <c r="F273" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6205,8 +6209,8 @@
       <c r="E274">
         <v>1800</v>
       </c>
-      <c r="G274" t="s">
-        <v>104</v>
+      <c r="F274" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6225,8 +6229,8 @@
       <c r="E275">
         <v>1800</v>
       </c>
-      <c r="G275" t="s">
-        <v>104</v>
+      <c r="F275" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6245,8 +6249,8 @@
       <c r="E276">
         <v>1800</v>
       </c>
-      <c r="G276" t="s">
-        <v>104</v>
+      <c r="F276" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6265,8 +6269,8 @@
       <c r="E277">
         <v>1800</v>
       </c>
-      <c r="G277" t="s">
-        <v>104</v>
+      <c r="F277" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6285,8 +6289,8 @@
       <c r="E278">
         <v>1800</v>
       </c>
-      <c r="G278" t="s">
-        <v>104</v>
+      <c r="F278" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6306,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6314,7 +6318,7 @@
         <v>63</v>
       </c>
       <c r="B280" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C280">
         <v>775500</v>
@@ -6345,8 +6349,8 @@
       <c r="E281">
         <v>1800</v>
       </c>
-      <c r="G281" t="s">
-        <v>104</v>
+      <c r="F281" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6365,8 +6369,8 @@
       <c r="E282">
         <v>1800</v>
       </c>
-      <c r="G282" t="s">
-        <v>104</v>
+      <c r="F282" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6385,8 +6389,8 @@
       <c r="E283">
         <v>1800</v>
       </c>
-      <c r="G283" t="s">
-        <v>104</v>
+      <c r="F283" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6405,8 +6409,8 @@
       <c r="E284">
         <v>1800</v>
       </c>
-      <c r="G284" t="s">
-        <v>104</v>
+      <c r="F284" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6425,8 +6429,8 @@
       <c r="E285">
         <v>1800</v>
       </c>
-      <c r="G285" t="s">
-        <v>104</v>
+      <c r="F285" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6445,8 +6449,8 @@
       <c r="E286">
         <v>1800</v>
       </c>
-      <c r="G286" t="s">
-        <v>104</v>
+      <c r="F286" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6465,8 +6469,8 @@
       <c r="E287">
         <v>1800</v>
       </c>
-      <c r="G287" t="s">
-        <v>104</v>
+      <c r="F287" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -6485,8 +6489,8 @@
       <c r="E288">
         <v>1800</v>
       </c>
-      <c r="G288" t="s">
-        <v>104</v>
+      <c r="F288" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -6505,8 +6509,8 @@
       <c r="E289">
         <v>1800</v>
       </c>
-      <c r="G289" t="s">
-        <v>104</v>
+      <c r="F289" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -6525,8 +6529,8 @@
       <c r="E290">
         <v>1800</v>
       </c>
-      <c r="G290" t="s">
-        <v>107</v>
+      <c r="F290" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -6545,8 +6549,8 @@
       <c r="E291">
         <v>1800</v>
       </c>
-      <c r="G291" t="s">
-        <v>104</v>
+      <c r="F291" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -6565,8 +6569,8 @@
       <c r="E292">
         <v>1800</v>
       </c>
-      <c r="G292" t="s">
-        <v>104</v>
+      <c r="F292" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -6585,8 +6589,8 @@
       <c r="E293">
         <v>1800</v>
       </c>
-      <c r="G293" t="s">
-        <v>104</v>
+      <c r="F293" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -6605,8 +6609,8 @@
       <c r="E294">
         <v>1800</v>
       </c>
-      <c r="G294" t="s">
-        <v>104</v>
+      <c r="F294" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -6625,8 +6629,8 @@
       <c r="E295">
         <v>1800</v>
       </c>
-      <c r="G295" t="s">
-        <v>104</v>
+      <c r="F295" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -6645,8 +6649,8 @@
       <c r="E296">
         <v>1800</v>
       </c>
-      <c r="G296" t="s">
-        <v>104</v>
+      <c r="F296" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -6665,8 +6669,8 @@
       <c r="E297">
         <v>1800</v>
       </c>
-      <c r="G297" t="s">
-        <v>104</v>
+      <c r="F297" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -6685,8 +6689,8 @@
       <c r="E298">
         <v>1800</v>
       </c>
-      <c r="G298" t="s">
-        <v>104</v>
+      <c r="F298" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -6705,8 +6709,8 @@
       <c r="E299">
         <v>1800</v>
       </c>
-      <c r="G299" t="s">
-        <v>104</v>
+      <c r="F299" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -6725,8 +6729,8 @@
       <c r="E300">
         <v>1800</v>
       </c>
-      <c r="G300" t="s">
-        <v>104</v>
+      <c r="F300" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -6745,8 +6749,8 @@
       <c r="E301">
         <v>1800</v>
       </c>
-      <c r="G301" t="s">
-        <v>104</v>
+      <c r="F301" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -6766,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -6774,7 +6778,7 @@
         <v>68</v>
       </c>
       <c r="B303" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C303">
         <v>840000</v>
@@ -6805,8 +6809,8 @@
       <c r="E304">
         <v>1800</v>
       </c>
-      <c r="G304" t="s">
-        <v>104</v>
+      <c r="F304" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -6825,8 +6829,8 @@
       <c r="E305">
         <v>1800</v>
       </c>
-      <c r="G305" t="s">
-        <v>104</v>
+      <c r="F305" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -6845,8 +6849,8 @@
       <c r="E306">
         <v>1800</v>
       </c>
-      <c r="G306" t="s">
-        <v>104</v>
+      <c r="F306" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -6865,8 +6869,8 @@
       <c r="E307">
         <v>1800</v>
       </c>
-      <c r="G307" t="s">
-        <v>104</v>
+      <c r="F307" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6885,8 +6889,8 @@
       <c r="E308">
         <v>1800</v>
       </c>
-      <c r="G308" t="s">
-        <v>104</v>
+      <c r="F308" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -6905,8 +6909,8 @@
       <c r="E309">
         <v>1800</v>
       </c>
-      <c r="G309" t="s">
-        <v>104</v>
+      <c r="F309" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -6925,8 +6929,8 @@
       <c r="E310">
         <v>1800</v>
       </c>
-      <c r="G310" t="s">
-        <v>104</v>
+      <c r="F310" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -6945,8 +6949,8 @@
       <c r="E311">
         <v>1800</v>
       </c>
-      <c r="G311" t="s">
-        <v>104</v>
+      <c r="F311" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -6965,8 +6969,8 @@
       <c r="E312">
         <v>1800</v>
       </c>
-      <c r="G312" t="s">
-        <v>104</v>
+      <c r="F312" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -6985,8 +6989,8 @@
       <c r="E313">
         <v>1800</v>
       </c>
-      <c r="G313" t="s">
-        <v>104</v>
+      <c r="F313" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7006,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7014,7 +7018,7 @@
         <v>71</v>
       </c>
       <c r="B315" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C315">
         <v>877000</v>
@@ -7045,8 +7049,8 @@
       <c r="E316">
         <v>1800</v>
       </c>
-      <c r="G316" t="s">
-        <v>104</v>
+      <c r="F316" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7065,8 +7069,8 @@
       <c r="E317">
         <v>1800</v>
       </c>
-      <c r="G317" t="s">
-        <v>104</v>
+      <c r="F317" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7085,8 +7089,8 @@
       <c r="E318">
         <v>1800</v>
       </c>
-      <c r="G318" t="s">
-        <v>104</v>
+      <c r="F318" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7105,8 +7109,8 @@
       <c r="E319">
         <v>1800</v>
       </c>
-      <c r="G319" t="s">
-        <v>104</v>
+      <c r="F319" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7126,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7134,7 +7138,7 @@
         <v>74</v>
       </c>
       <c r="B321" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C321">
         <v>899000</v>
@@ -7165,8 +7169,8 @@
       <c r="E322">
         <v>1800</v>
       </c>
-      <c r="G322" t="s">
-        <v>104</v>
+      <c r="F322" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7185,8 +7189,8 @@
       <c r="E323">
         <v>1800</v>
       </c>
-      <c r="G323" t="s">
-        <v>104</v>
+      <c r="F323" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7205,8 +7209,8 @@
       <c r="E324">
         <v>1800</v>
       </c>
-      <c r="G324" t="s">
-        <v>104</v>
+      <c r="F324" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7225,8 +7229,8 @@
       <c r="E325">
         <v>1800</v>
       </c>
-      <c r="G325" t="s">
-        <v>104</v>
+      <c r="F325" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7245,8 +7249,8 @@
       <c r="E326">
         <v>1800</v>
       </c>
-      <c r="G326" t="s">
-        <v>104</v>
+      <c r="F326" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7265,8 +7269,8 @@
       <c r="E327">
         <v>1800</v>
       </c>
-      <c r="G327" t="s">
-        <v>104</v>
+      <c r="F327" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7285,8 +7289,8 @@
       <c r="E328">
         <v>1800</v>
       </c>
-      <c r="G328" t="s">
-        <v>104</v>
+      <c r="F328" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7305,8 +7309,8 @@
       <c r="E329">
         <v>1800</v>
       </c>
-      <c r="G329" t="s">
-        <v>104</v>
+      <c r="F329" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7325,8 +7329,8 @@
       <c r="E330">
         <v>1800</v>
       </c>
-      <c r="G330" t="s">
-        <v>104</v>
+      <c r="F330" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -7345,8 +7349,8 @@
       <c r="E331">
         <v>1800</v>
       </c>
-      <c r="G331" t="s">
-        <v>104</v>
+      <c r="F331" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -7365,8 +7369,8 @@
       <c r="E332">
         <v>1800</v>
       </c>
-      <c r="G332" t="s">
-        <v>104</v>
+      <c r="F332" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -7385,8 +7389,8 @@
       <c r="E333">
         <v>1800</v>
       </c>
-      <c r="G333" t="s">
-        <v>104</v>
+      <c r="F333" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -7405,8 +7409,8 @@
       <c r="E334">
         <v>1800</v>
       </c>
-      <c r="G334" t="s">
-        <v>104</v>
+      <c r="F334" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -7425,8 +7429,8 @@
       <c r="E335">
         <v>1800</v>
       </c>
-      <c r="G335" t="s">
-        <v>107</v>
+      <c r="F335" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -7445,8 +7449,8 @@
       <c r="E336">
         <v>1800</v>
       </c>
-      <c r="G336" t="s">
-        <v>104</v>
+      <c r="F336" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -7465,8 +7469,8 @@
       <c r="E337">
         <v>1800</v>
       </c>
-      <c r="G337" t="s">
-        <v>104</v>
+      <c r="F337" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -7485,8 +7489,8 @@
       <c r="E338">
         <v>1800</v>
       </c>
-      <c r="G338" t="s">
-        <v>104</v>
+      <c r="F338" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -7505,8 +7509,8 @@
       <c r="E339">
         <v>1800</v>
       </c>
-      <c r="G339" t="s">
-        <v>104</v>
+      <c r="F339" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -7525,8 +7529,8 @@
       <c r="E340">
         <v>1800</v>
       </c>
-      <c r="G340" t="s">
-        <v>104</v>
+      <c r="F340" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -7546,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -7554,7 +7558,7 @@
         <v>79</v>
       </c>
       <c r="B342" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C342">
         <v>958500</v>
@@ -7586,7 +7590,7 @@
         <v>1800</v>
       </c>
       <c r="F343" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -7606,7 +7610,7 @@
         <v>1800</v>
       </c>
       <c r="F344" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -7626,7 +7630,7 @@
         <v>1800</v>
       </c>
       <c r="F345" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -7646,7 +7650,7 @@
         <v>1800</v>
       </c>
       <c r="F346" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/CDSImagingPilotProtocol_TimingsBlock2.xlsx
+++ b/CDSImagingPilotProtocol_TimingsBlock2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/nicholas_dunn_cchmc_org/Documents/Documents/06 - Neuroimaging Study/SART/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research\Computerized Tasks\Sustained Attention to Response Task\sart-tp-psychopy-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_714D9787CE44A61C7FAB2B47EC012D16618A1064" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79297B9E-348D-49BC-97C5-3AA39C602806}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E891951-FB10-41F8-944B-0652AB900265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="94">
   <si>
     <t>Non-target</t>
   </si>
@@ -281,54 +281,6 @@
     <t>Non-target</t>
   </si>
   <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
     <t>trialType</t>
   </si>
   <si>
@@ -363,6 +315,9 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t>Where was your attention focused just before the probe?</t>
   </si>
 </sst>
 </file>
@@ -412,10 +367,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K317" sqref="K317"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,25 +683,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -770,7 +721,7 @@
         <v>1800</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -790,7 +741,7 @@
         <v>1800</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -810,7 +761,7 @@
         <v>1800</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -830,7 +781,7 @@
         <v>1800</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -850,7 +801,7 @@
         <v>1800</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -870,7 +821,7 @@
         <v>1800</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -890,7 +841,7 @@
         <v>1800</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -910,7 +861,7 @@
         <v>1800</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -930,7 +881,7 @@
         <v>1800</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -950,7 +901,7 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -970,7 +921,7 @@
         <v>1800</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -990,7 +941,7 @@
         <v>1800</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1010,7 +961,7 @@
         <v>1800</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1030,7 +981,7 @@
         <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1050,7 +1001,7 @@
         <v>1800</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1070,7 +1021,7 @@
         <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1090,7 +1041,7 @@
         <v>1800</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1110,7 +1061,7 @@
         <v>1800</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1130,7 +1081,7 @@
         <v>1800</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1150,7 +1101,7 @@
         <v>1800</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1170,7 +1121,7 @@
         <v>1800</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1190,7 +1141,7 @@
         <v>1800</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1198,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>55000</v>
@@ -1210,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1218,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>61000</v>
@@ -1230,7 +1181,7 @@
         <v>5000</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1250,7 +1201,7 @@
         <v>1800</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1270,7 +1221,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1290,7 +1241,7 @@
         <v>1800</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1310,7 +1261,7 @@
         <v>1800</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1330,7 +1281,7 @@
         <v>1800</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1350,7 +1301,7 @@
         <v>1800</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1370,7 +1321,7 @@
         <v>1800</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1390,7 +1341,7 @@
         <v>1800</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1410,7 +1361,7 @@
         <v>1800</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1430,7 +1381,7 @@
         <v>1800</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1450,7 +1401,7 @@
         <v>1800</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1470,7 +1421,7 @@
         <v>1800</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1490,7 +1441,7 @@
         <v>1800</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1510,7 +1461,7 @@
         <v>1800</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1530,7 +1481,7 @@
         <v>1800</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1550,7 +1501,7 @@
         <v>1800</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1570,7 +1521,7 @@
         <v>1800</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1590,7 +1541,7 @@
         <v>1800</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1598,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>112000</v>
@@ -1610,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1618,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>118000</v>
@@ -1630,7 +1581,7 @@
         <v>5000</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1650,7 +1601,7 @@
         <v>1800</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1670,7 +1621,7 @@
         <v>1800</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1690,7 +1641,7 @@
         <v>1800</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1710,7 +1661,7 @@
         <v>1800</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1730,7 +1681,7 @@
         <v>1800</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1750,7 +1701,7 @@
         <v>1800</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1770,7 +1721,7 @@
         <v>1800</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1790,7 +1741,7 @@
         <v>1800</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1810,7 +1761,7 @@
         <v>1800</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1830,7 +1781,7 @@
         <v>1800</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1850,7 +1801,7 @@
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1870,7 +1821,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1890,7 +1841,7 @@
         <v>1800</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1910,7 +1861,7 @@
         <v>1800</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1930,7 +1881,7 @@
         <v>1800</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1950,7 +1901,7 @@
         <v>1800</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1970,7 +1921,7 @@
         <v>1800</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1990,7 +1941,7 @@
         <v>1800</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2010,7 +1961,7 @@
         <v>1800</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2030,7 +1981,7 @@
         <v>1800</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2050,7 +2001,7 @@
         <v>1800</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2070,7 +2021,7 @@
         <v>1800</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2090,7 +2041,7 @@
         <v>1800</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2110,7 +2061,7 @@
         <v>1800</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2130,7 +2081,7 @@
         <v>1800</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2150,7 +2101,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2170,7 +2121,7 @@
         <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2190,7 +2141,7 @@
         <v>1800</v>
       </c>
       <c r="F73" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2210,7 +2161,7 @@
         <v>1800</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2230,7 +2181,7 @@
         <v>1800</v>
       </c>
       <c r="F75" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2250,7 +2201,7 @@
         <v>1800</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2270,7 +2221,7 @@
         <v>1800</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2290,7 +2241,7 @@
         <v>1800</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2310,7 +2261,7 @@
         <v>1800</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2330,7 +2281,7 @@
         <v>1800</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2350,7 +2301,7 @@
         <v>1800</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2370,7 +2321,7 @@
         <v>1800</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2390,7 +2341,7 @@
         <v>1800</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2398,7 +2349,7 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C84">
         <v>219000</v>
@@ -2410,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2418,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C85">
         <v>225000</v>
@@ -2430,7 +2381,7 @@
         <v>5000</v>
       </c>
       <c r="G85" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2450,7 +2401,7 @@
         <v>1800</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2470,7 +2421,7 @@
         <v>1800</v>
       </c>
       <c r="F87" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2490,7 +2441,7 @@
         <v>1800</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2510,7 +2461,7 @@
         <v>1800</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2530,7 +2481,7 @@
         <v>1800</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2550,7 +2501,7 @@
         <v>1800</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2570,7 +2521,7 @@
         <v>1800</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2590,7 +2541,7 @@
         <v>1800</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2610,7 +2561,7 @@
         <v>1800</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2630,7 +2581,7 @@
         <v>1800</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2650,7 +2601,7 @@
         <v>1800</v>
       </c>
       <c r="F96" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2670,7 +2621,7 @@
         <v>1800</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2690,7 +2641,7 @@
         <v>1800</v>
       </c>
       <c r="F98" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2710,7 +2661,7 @@
         <v>1800</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2730,7 +2681,7 @@
         <v>1800</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2750,7 +2701,7 @@
         <v>1800</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2770,7 +2721,7 @@
         <v>1800</v>
       </c>
       <c r="F102" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2790,7 +2741,7 @@
         <v>1800</v>
       </c>
       <c r="F103" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2810,7 +2761,7 @@
         <v>1800</v>
       </c>
       <c r="F104" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2830,7 +2781,7 @@
         <v>1800</v>
       </c>
       <c r="F105" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2850,7 +2801,7 @@
         <v>1800</v>
       </c>
       <c r="F106" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2870,7 +2821,7 @@
         <v>1800</v>
       </c>
       <c r="F107" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2890,7 +2841,7 @@
         <v>1800</v>
       </c>
       <c r="F108" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2910,7 +2861,7 @@
         <v>1800</v>
       </c>
       <c r="F109" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2930,7 +2881,7 @@
         <v>1800</v>
       </c>
       <c r="F110" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2950,7 +2901,7 @@
         <v>1800</v>
       </c>
       <c r="F111" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2970,7 +2921,7 @@
         <v>1800</v>
       </c>
       <c r="F112" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2990,7 +2941,7 @@
         <v>1800</v>
       </c>
       <c r="F113" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3010,7 +2961,7 @@
         <v>1800</v>
       </c>
       <c r="F114" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3030,7 +2981,7 @@
         <v>1800</v>
       </c>
       <c r="F115" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,7 +3001,7 @@
         <v>1800</v>
       </c>
       <c r="F116" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3070,7 +3021,7 @@
         <v>1800</v>
       </c>
       <c r="F117" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3090,7 +3041,7 @@
         <v>1800</v>
       </c>
       <c r="F118" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,7 +3061,7 @@
         <v>1800</v>
       </c>
       <c r="F119" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3130,7 +3081,7 @@
         <v>1800</v>
       </c>
       <c r="F120" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3138,7 +3089,7 @@
         <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C121">
         <v>318500</v>
@@ -3150,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3158,7 +3109,7 @@
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C122">
         <v>324500</v>
@@ -3170,7 +3121,7 @@
         <v>5000</v>
       </c>
       <c r="G122" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3190,7 +3141,7 @@
         <v>1800</v>
       </c>
       <c r="F123" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3210,7 +3161,7 @@
         <v>1800</v>
       </c>
       <c r="F124" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3230,7 +3181,7 @@
         <v>1800</v>
       </c>
       <c r="F125" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3250,7 +3201,7 @@
         <v>1800</v>
       </c>
       <c r="F126" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3258,7 +3209,7 @@
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C127">
         <v>340500</v>
@@ -3270,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3278,7 +3229,7 @@
         <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C128">
         <v>346500</v>
@@ -3290,7 +3241,7 @@
         <v>5000</v>
       </c>
       <c r="G128" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3310,7 +3261,7 @@
         <v>1800</v>
       </c>
       <c r="F129" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3330,7 +3281,7 @@
         <v>1800</v>
       </c>
       <c r="F130" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3350,7 +3301,7 @@
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3370,7 +3321,7 @@
         <v>1800</v>
       </c>
       <c r="F132" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3390,7 +3341,7 @@
         <v>1800</v>
       </c>
       <c r="F133" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3410,7 +3361,7 @@
         <v>1800</v>
       </c>
       <c r="F134" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3430,7 +3381,7 @@
         <v>1800</v>
       </c>
       <c r="F135" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3450,7 +3401,7 @@
         <v>1800</v>
       </c>
       <c r="F136" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3470,7 +3421,7 @@
         <v>1800</v>
       </c>
       <c r="F137" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3490,7 +3441,7 @@
         <v>1800</v>
       </c>
       <c r="F138" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3510,7 +3461,7 @@
         <v>1800</v>
       </c>
       <c r="F139" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3530,7 +3481,7 @@
         <v>1800</v>
       </c>
       <c r="F140" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3550,7 +3501,7 @@
         <v>1800</v>
       </c>
       <c r="F141" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3570,7 +3521,7 @@
         <v>1800</v>
       </c>
       <c r="F142" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3590,7 +3541,7 @@
         <v>1800</v>
       </c>
       <c r="F143" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3610,7 +3561,7 @@
         <v>1800</v>
       </c>
       <c r="F144" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3630,7 +3581,7 @@
         <v>1800</v>
       </c>
       <c r="F145" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3650,7 +3601,7 @@
         <v>1800</v>
       </c>
       <c r="F146" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3670,7 +3621,7 @@
         <v>1800</v>
       </c>
       <c r="F147" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3690,7 +3641,7 @@
         <v>1800</v>
       </c>
       <c r="F148" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3710,7 +3661,7 @@
         <v>1800</v>
       </c>
       <c r="F149" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3730,7 +3681,7 @@
         <v>1800</v>
       </c>
       <c r="F150" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3750,7 +3701,7 @@
         <v>1800</v>
       </c>
       <c r="F151" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3770,7 +3721,7 @@
         <v>1800</v>
       </c>
       <c r="F152" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3790,7 +3741,7 @@
         <v>1800</v>
       </c>
       <c r="F153" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3810,7 +3761,7 @@
         <v>1800</v>
       </c>
       <c r="F154" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3830,7 +3781,7 @@
         <v>1800</v>
       </c>
       <c r="F155" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3850,7 +3801,7 @@
         <v>1800</v>
       </c>
       <c r="F156" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3870,7 +3821,7 @@
         <v>1800</v>
       </c>
       <c r="F157" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3890,7 +3841,7 @@
         <v>1800</v>
       </c>
       <c r="F158" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3910,7 +3861,7 @@
         <v>1800</v>
       </c>
       <c r="F159" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3930,7 +3881,7 @@
         <v>1800</v>
       </c>
       <c r="F160" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3950,7 +3901,7 @@
         <v>1800</v>
       </c>
       <c r="F161" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3970,7 +3921,7 @@
         <v>1800</v>
       </c>
       <c r="F162" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -3978,7 +3929,7 @@
         <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C163">
         <v>437500</v>
@@ -3990,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3998,7 +3949,7 @@
         <v>35</v>
       </c>
       <c r="B164" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C164">
         <v>443500</v>
@@ -4010,7 +3961,7 @@
         <v>5000</v>
       </c>
       <c r="G164" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4030,7 +3981,7 @@
         <v>1800</v>
       </c>
       <c r="F165" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4050,7 +4001,7 @@
         <v>1800</v>
       </c>
       <c r="F166" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4070,7 +4021,7 @@
         <v>1800</v>
       </c>
       <c r="F167" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4090,7 +4041,7 @@
         <v>1800</v>
       </c>
       <c r="F168" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4110,7 +4061,7 @@
         <v>1800</v>
       </c>
       <c r="F169" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4130,7 +4081,7 @@
         <v>1800</v>
       </c>
       <c r="F170" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4138,7 +4089,7 @@
         <v>37</v>
       </c>
       <c r="B171" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C171">
         <v>464500</v>
@@ -4150,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4158,7 +4109,7 @@
         <v>38</v>
       </c>
       <c r="B172" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C172">
         <v>470500</v>
@@ -4170,7 +4121,7 @@
         <v>5000</v>
       </c>
       <c r="G172" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4190,7 +4141,7 @@
         <v>1800</v>
       </c>
       <c r="F173" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4210,7 +4161,7 @@
         <v>1800</v>
       </c>
       <c r="F174" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4230,7 +4181,7 @@
         <v>1800</v>
       </c>
       <c r="F175" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4250,7 +4201,7 @@
         <v>1800</v>
       </c>
       <c r="F176" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4270,7 +4221,7 @@
         <v>1800</v>
       </c>
       <c r="F177" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4290,7 +4241,7 @@
         <v>1800</v>
       </c>
       <c r="F178" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4310,7 +4261,7 @@
         <v>1800</v>
       </c>
       <c r="F179" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4330,7 +4281,7 @@
         <v>1800</v>
       </c>
       <c r="F180" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4350,7 +4301,7 @@
         <v>1800</v>
       </c>
       <c r="F181" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4370,7 +4321,7 @@
         <v>1800</v>
       </c>
       <c r="F182" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4390,7 +4341,7 @@
         <v>1800</v>
       </c>
       <c r="F183" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4410,7 +4361,7 @@
         <v>1800</v>
       </c>
       <c r="F184" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4430,7 +4381,7 @@
         <v>1800</v>
       </c>
       <c r="F185" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4450,7 +4401,7 @@
         <v>1800</v>
       </c>
       <c r="F186" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4470,7 +4421,7 @@
         <v>1800</v>
       </c>
       <c r="F187" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4490,7 +4441,7 @@
         <v>1800</v>
       </c>
       <c r="F188" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4510,7 +4461,7 @@
         <v>1800</v>
       </c>
       <c r="F189" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4530,7 +4481,7 @@
         <v>1800</v>
       </c>
       <c r="F190" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4538,7 +4489,7 @@
         <v>42</v>
       </c>
       <c r="B191" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C191">
         <v>521500</v>
@@ -4550,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4558,7 +4509,7 @@
         <v>43</v>
       </c>
       <c r="B192" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C192">
         <v>527500</v>
@@ -4570,7 +4521,7 @@
         <v>5000</v>
       </c>
       <c r="G192" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4590,7 +4541,7 @@
         <v>1800</v>
       </c>
       <c r="F193" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4610,7 +4561,7 @@
         <v>1800</v>
       </c>
       <c r="F194" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4630,7 +4581,7 @@
         <v>1800</v>
       </c>
       <c r="F195" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4650,7 +4601,7 @@
         <v>1800</v>
       </c>
       <c r="F196" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4670,7 +4621,7 @@
         <v>1800</v>
       </c>
       <c r="F197" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4690,7 +4641,7 @@
         <v>1800</v>
       </c>
       <c r="F198" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4710,7 +4661,7 @@
         <v>1800</v>
       </c>
       <c r="F199" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4730,7 +4681,7 @@
         <v>1800</v>
       </c>
       <c r="F200" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4750,7 +4701,7 @@
         <v>1800</v>
       </c>
       <c r="F201" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -4770,7 +4721,7 @@
         <v>1800</v>
       </c>
       <c r="F202" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4790,7 +4741,7 @@
         <v>1800</v>
       </c>
       <c r="F203" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4810,7 +4761,7 @@
         <v>1800</v>
       </c>
       <c r="F204" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4818,7 +4769,7 @@
         <v>45</v>
       </c>
       <c r="B205" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C205">
         <v>563500</v>
@@ -4830,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -4838,7 +4789,7 @@
         <v>46</v>
       </c>
       <c r="B206" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C206">
         <v>569500</v>
@@ -4850,7 +4801,7 @@
         <v>5000</v>
       </c>
       <c r="G206" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -4870,7 +4821,7 @@
         <v>1800</v>
       </c>
       <c r="F207" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -4890,7 +4841,7 @@
         <v>1800</v>
       </c>
       <c r="F208" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4910,7 +4861,7 @@
         <v>1800</v>
       </c>
       <c r="F209" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4930,7 +4881,7 @@
         <v>1800</v>
       </c>
       <c r="F210" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4950,7 +4901,7 @@
         <v>1800</v>
       </c>
       <c r="F211" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4970,7 +4921,7 @@
         <v>1800</v>
       </c>
       <c r="F212" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4990,7 +4941,7 @@
         <v>1800</v>
       </c>
       <c r="F213" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5010,7 +4961,7 @@
         <v>1800</v>
       </c>
       <c r="F214" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5030,7 +4981,7 @@
         <v>1800</v>
       </c>
       <c r="F215" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5050,7 +5001,7 @@
         <v>1800</v>
       </c>
       <c r="F216" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5070,7 +5021,7 @@
         <v>1800</v>
       </c>
       <c r="F217" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5090,7 +5041,7 @@
         <v>1800</v>
       </c>
       <c r="F218" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5110,7 +5061,7 @@
         <v>1800</v>
       </c>
       <c r="F219" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5130,7 +5081,7 @@
         <v>1800</v>
       </c>
       <c r="F220" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5150,7 +5101,7 @@
         <v>1800</v>
       </c>
       <c r="F221" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5170,7 +5121,7 @@
         <v>1800</v>
       </c>
       <c r="F222" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5190,7 +5141,7 @@
         <v>1800</v>
       </c>
       <c r="F223" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5210,7 +5161,7 @@
         <v>1800</v>
       </c>
       <c r="F224" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5230,7 +5181,7 @@
         <v>1800</v>
       </c>
       <c r="F225" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5250,7 +5201,7 @@
         <v>1800</v>
       </c>
       <c r="F226" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5270,7 +5221,7 @@
         <v>1800</v>
       </c>
       <c r="F227" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5290,7 +5241,7 @@
         <v>1800</v>
       </c>
       <c r="F228" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5310,7 +5261,7 @@
         <v>1800</v>
       </c>
       <c r="F229" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5330,7 +5281,7 @@
         <v>1800</v>
       </c>
       <c r="F230" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5350,7 +5301,7 @@
         <v>1800</v>
       </c>
       <c r="F231" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5370,7 +5321,7 @@
         <v>1800</v>
       </c>
       <c r="F232" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5390,7 +5341,7 @@
         <v>1800</v>
       </c>
       <c r="F233" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5410,7 +5361,7 @@
         <v>1800</v>
       </c>
       <c r="F234" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5430,7 +5381,7 @@
         <v>1800</v>
       </c>
       <c r="F235" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5450,7 +5401,7 @@
         <v>1800</v>
       </c>
       <c r="F236" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5470,7 +5421,7 @@
         <v>1800</v>
       </c>
       <c r="F237" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5490,7 +5441,7 @@
         <v>1800</v>
       </c>
       <c r="F238" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5510,7 +5461,7 @@
         <v>1800</v>
       </c>
       <c r="F239" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5518,7 +5469,7 @@
         <v>54</v>
       </c>
       <c r="B240" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C240">
         <v>658000</v>
@@ -5530,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5538,7 +5489,7 @@
         <v>55</v>
       </c>
       <c r="B241" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C241">
         <v>664000</v>
@@ -5550,7 +5501,7 @@
         <v>5000</v>
       </c>
       <c r="G241" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5570,7 +5521,7 @@
         <v>1800</v>
       </c>
       <c r="F242" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5590,7 +5541,7 @@
         <v>1800</v>
       </c>
       <c r="F243" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5610,7 +5561,7 @@
         <v>1800</v>
       </c>
       <c r="F244" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5630,7 +5581,7 @@
         <v>1800</v>
       </c>
       <c r="F245" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -5650,7 +5601,7 @@
         <v>1800</v>
       </c>
       <c r="F246" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5670,7 +5621,7 @@
         <v>1800</v>
       </c>
       <c r="F247" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5690,7 +5641,7 @@
         <v>1800</v>
       </c>
       <c r="F248" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5710,7 +5661,7 @@
         <v>1800</v>
       </c>
       <c r="F249" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5730,7 +5681,7 @@
         <v>1800</v>
       </c>
       <c r="F250" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5750,7 +5701,7 @@
         <v>1800</v>
       </c>
       <c r="F251" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5770,7 +5721,7 @@
         <v>1800</v>
       </c>
       <c r="F252" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5790,7 +5741,7 @@
         <v>1800</v>
       </c>
       <c r="F253" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5810,7 +5761,7 @@
         <v>1800</v>
       </c>
       <c r="F254" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5830,7 +5781,7 @@
         <v>1800</v>
       </c>
       <c r="F255" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5850,7 +5801,7 @@
         <v>1800</v>
       </c>
       <c r="F256" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5870,7 +5821,7 @@
         <v>1800</v>
       </c>
       <c r="F257" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -5890,7 +5841,7 @@
         <v>1800</v>
       </c>
       <c r="F258" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -5910,7 +5861,7 @@
         <v>1800</v>
       </c>
       <c r="F259" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -5930,7 +5881,7 @@
         <v>1800</v>
       </c>
       <c r="F260" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -5950,7 +5901,7 @@
         <v>1800</v>
       </c>
       <c r="F261" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -5970,7 +5921,7 @@
         <v>1800</v>
       </c>
       <c r="F262" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -5990,7 +5941,7 @@
         <v>1800</v>
       </c>
       <c r="F263" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6010,7 +5961,7 @@
         <v>1800</v>
       </c>
       <c r="F264" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6030,7 +5981,7 @@
         <v>1800</v>
       </c>
       <c r="F265" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6050,7 +6001,7 @@
         <v>1800</v>
       </c>
       <c r="F266" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6070,7 +6021,7 @@
         <v>1800</v>
       </c>
       <c r="F267" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6078,7 +6029,7 @@
         <v>59</v>
       </c>
       <c r="B268" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C268">
         <v>735000</v>
@@ -6090,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6098,7 +6049,7 @@
         <v>60</v>
       </c>
       <c r="B269" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C269">
         <v>741000</v>
@@ -6110,7 +6061,7 @@
         <v>5000</v>
       </c>
       <c r="G269" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6130,7 +6081,7 @@
         <v>1800</v>
       </c>
       <c r="F270" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6150,7 +6101,7 @@
         <v>1800</v>
       </c>
       <c r="F271" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6170,7 +6121,7 @@
         <v>1800</v>
       </c>
       <c r="F272" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6190,7 +6141,7 @@
         <v>1800</v>
       </c>
       <c r="F273" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6210,7 +6161,7 @@
         <v>1800</v>
       </c>
       <c r="F274" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6230,7 +6181,7 @@
         <v>1800</v>
       </c>
       <c r="F275" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6250,7 +6201,7 @@
         <v>1800</v>
       </c>
       <c r="F276" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6270,7 +6221,7 @@
         <v>1800</v>
       </c>
       <c r="F277" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6290,7 +6241,7 @@
         <v>1800</v>
       </c>
       <c r="F278" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6298,7 +6249,7 @@
         <v>62</v>
       </c>
       <c r="B279" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C279">
         <v>769500</v>
@@ -6310,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6318,7 +6269,7 @@
         <v>63</v>
       </c>
       <c r="B280" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C280">
         <v>775500</v>
@@ -6330,7 +6281,7 @@
         <v>5000</v>
       </c>
       <c r="G280" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6350,7 +6301,7 @@
         <v>1800</v>
       </c>
       <c r="F281" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6370,7 +6321,7 @@
         <v>1800</v>
       </c>
       <c r="F282" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6390,7 +6341,7 @@
         <v>1800</v>
       </c>
       <c r="F283" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6410,7 +6361,7 @@
         <v>1800</v>
       </c>
       <c r="F284" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6430,7 +6381,7 @@
         <v>1800</v>
       </c>
       <c r="F285" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6450,7 +6401,7 @@
         <v>1800</v>
       </c>
       <c r="F286" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6470,7 +6421,7 @@
         <v>1800</v>
       </c>
       <c r="F287" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -6490,7 +6441,7 @@
         <v>1800</v>
       </c>
       <c r="F288" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -6510,7 +6461,7 @@
         <v>1800</v>
       </c>
       <c r="F289" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -6530,7 +6481,7 @@
         <v>1800</v>
       </c>
       <c r="F290" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -6550,7 +6501,7 @@
         <v>1800</v>
       </c>
       <c r="F291" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -6570,7 +6521,7 @@
         <v>1800</v>
       </c>
       <c r="F292" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -6590,7 +6541,7 @@
         <v>1800</v>
       </c>
       <c r="F293" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -6610,7 +6561,7 @@
         <v>1800</v>
       </c>
       <c r="F294" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -6630,7 +6581,7 @@
         <v>1800</v>
       </c>
       <c r="F295" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -6650,7 +6601,7 @@
         <v>1800</v>
       </c>
       <c r="F296" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -6670,7 +6621,7 @@
         <v>1800</v>
       </c>
       <c r="F297" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -6690,7 +6641,7 @@
         <v>1800</v>
       </c>
       <c r="F298" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -6710,7 +6661,7 @@
         <v>1800</v>
       </c>
       <c r="F299" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -6730,7 +6681,7 @@
         <v>1800</v>
       </c>
       <c r="F300" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -6750,7 +6701,7 @@
         <v>1800</v>
       </c>
       <c r="F301" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -6770,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -6778,7 +6729,7 @@
         <v>68</v>
       </c>
       <c r="B303" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C303">
         <v>840000</v>
@@ -6790,7 +6741,7 @@
         <v>5000</v>
       </c>
       <c r="G303" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -6810,7 +6761,7 @@
         <v>1800</v>
       </c>
       <c r="F304" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -6830,7 +6781,7 @@
         <v>1800</v>
       </c>
       <c r="F305" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -6850,7 +6801,7 @@
         <v>1800</v>
       </c>
       <c r="F306" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -6870,7 +6821,7 @@
         <v>1800</v>
       </c>
       <c r="F307" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6890,7 +6841,7 @@
         <v>1800</v>
       </c>
       <c r="F308" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -6910,7 +6861,7 @@
         <v>1800</v>
       </c>
       <c r="F309" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -6930,7 +6881,7 @@
         <v>1800</v>
       </c>
       <c r="F310" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -6950,7 +6901,7 @@
         <v>1800</v>
       </c>
       <c r="F311" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -6970,7 +6921,7 @@
         <v>1800</v>
       </c>
       <c r="F312" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -6990,7 +6941,7 @@
         <v>1800</v>
       </c>
       <c r="F313" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -6998,7 +6949,7 @@
         <v>70</v>
       </c>
       <c r="B314" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C314">
         <v>871000</v>
@@ -7010,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7018,7 +6969,7 @@
         <v>71</v>
       </c>
       <c r="B315" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C315">
         <v>877000</v>
@@ -7030,7 +6981,7 @@
         <v>5000</v>
       </c>
       <c r="G315" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7050,7 +7001,7 @@
         <v>1800</v>
       </c>
       <c r="F316" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7070,7 +7021,7 @@
         <v>1800</v>
       </c>
       <c r="F317" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7090,7 +7041,7 @@
         <v>1800</v>
       </c>
       <c r="F318" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7110,7 +7061,7 @@
         <v>1800</v>
       </c>
       <c r="F319" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7118,7 +7069,7 @@
         <v>73</v>
       </c>
       <c r="B320" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C320">
         <v>893000</v>
@@ -7130,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7138,7 +7089,7 @@
         <v>74</v>
       </c>
       <c r="B321" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C321">
         <v>899000</v>
@@ -7150,7 +7101,7 @@
         <v>5000</v>
       </c>
       <c r="G321" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7170,7 +7121,7 @@
         <v>1800</v>
       </c>
       <c r="F322" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7190,7 +7141,7 @@
         <v>1800</v>
       </c>
       <c r="F323" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7210,7 +7161,7 @@
         <v>1800</v>
       </c>
       <c r="F324" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7230,7 +7181,7 @@
         <v>1800</v>
       </c>
       <c r="F325" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7250,7 +7201,7 @@
         <v>1800</v>
       </c>
       <c r="F326" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7270,7 +7221,7 @@
         <v>1800</v>
       </c>
       <c r="F327" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7290,7 +7241,7 @@
         <v>1800</v>
       </c>
       <c r="F328" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7310,7 +7261,7 @@
         <v>1800</v>
       </c>
       <c r="F329" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7330,7 +7281,7 @@
         <v>1800</v>
       </c>
       <c r="F330" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -7350,7 +7301,7 @@
         <v>1800</v>
       </c>
       <c r="F331" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -7370,7 +7321,7 @@
         <v>1800</v>
       </c>
       <c r="F332" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -7390,7 +7341,7 @@
         <v>1800</v>
       </c>
       <c r="F333" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -7410,7 +7361,7 @@
         <v>1800</v>
       </c>
       <c r="F334" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -7430,7 +7381,7 @@
         <v>1800</v>
       </c>
       <c r="F335" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -7450,7 +7401,7 @@
         <v>1800</v>
       </c>
       <c r="F336" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -7470,7 +7421,7 @@
         <v>1800</v>
       </c>
       <c r="F337" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -7490,7 +7441,7 @@
         <v>1800</v>
       </c>
       <c r="F338" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -7510,7 +7461,7 @@
         <v>1800</v>
       </c>
       <c r="F339" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -7530,7 +7481,7 @@
         <v>1800</v>
       </c>
       <c r="F340" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -7538,7 +7489,7 @@
         <v>78</v>
       </c>
       <c r="B341" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C341">
         <v>952500</v>
@@ -7550,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -7558,7 +7509,7 @@
         <v>79</v>
       </c>
       <c r="B342" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C342">
         <v>958500</v>
@@ -7570,7 +7521,7 @@
         <v>5000</v>
       </c>
       <c r="G342" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -7590,7 +7541,7 @@
         <v>1800</v>
       </c>
       <c r="F343" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -7610,7 +7561,7 @@
         <v>1800</v>
       </c>
       <c r="F344" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -7630,7 +7581,7 @@
         <v>1800</v>
       </c>
       <c r="F345" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -7650,7 +7601,7 @@
         <v>1800</v>
       </c>
       <c r="F346" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
